--- a/新版中日交流标准日本语/初级/vocabularies.xlsx
+++ b/新版中日交流标准日本语/初级/vocabularies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>词性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,82 @@
   </si>
   <si>
     <t>キム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雑誌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ざっし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お土産</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おみやげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シルク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シルク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どなた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ながしま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スワトウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,9 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -522,6 +600,108 @@
       </c>
       <c r="E5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/新版中日交流标准日本语/初级/vocabularies.xlsx
+++ b/新版中日交流标准日本语/初级/vocabularies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>词性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,290 @@
   </si>
   <si>
     <t>汕头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百货商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高级）公寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动扶梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风衣，大衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近，周边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デパート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デパート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵便局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうびんきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>図書館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>としょかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マンション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喫茶店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きっさてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エスカレーター</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エスカレーター</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周辺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうへん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起居室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威士忌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母，双亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后，后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卖店，售货亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れいぞうこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウイスキー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウイスキー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>両親</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いもうと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後ろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うしろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばいてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジェーアール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上个星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おととい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はたらきます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終わります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おわります</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,13 +793,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -702,6 +991,414 @@
       </c>
       <c r="E11" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/新版中日交流标准日本语/初级/vocabularies.xlsx
+++ b/新版中日交流标准日本语/初级/vocabularies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t>词性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,122 @@
   </si>
   <si>
     <t>おわります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜，半夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新干线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涩谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我先走了，我先告辞了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よなか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうべ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通機関</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうつうきかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新幹線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんかんせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フェリー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タクシー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はこね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渋谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しぶや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんじゅく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お先に失礼します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おさきにしつれいします</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,17 +909,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1399,6 +1515,190 @@
       </c>
       <c r="E35" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/新版中日交流标准日本语/初级/vocabularies.xlsx
+++ b/新版中日交流标准日本语/初级/vocabularies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="174">
   <si>
     <t>词性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,6 +555,162 @@
   </si>
   <si>
     <t>おさきにしつれいします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おかゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼ご飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひるごはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リンゴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イチゴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申込書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうしこみしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パンダ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パンダ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃除します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうじします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打扫，扫除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃいませ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎光临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いってまいります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いってきます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いってらっしゃい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你走好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お帰りなさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お帰りなさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你回来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かしこまりました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,6 +1855,243 @@
       </c>
       <c r="E46" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
